--- a/significance_encodings/SSListHouse.xlsx
+++ b/significance_encodings/SSListHouse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wisemaae\Dropbox\desktop_backup\research\LEP_clean_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizzi\congress\data\significance_encodings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B3A37F-CF73-445D-BB08-17D991C41A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE916F03-E92B-4642-AAA6-ED5EF6350BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28320" yWindow="420" windowWidth="13380" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,18 +59,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>93rd House</t>
-  </si>
-  <si>
-    <t>118_bill_type</t>
-  </si>
-  <si>
-    <t>hjres</t>
-  </si>
-  <si>
-    <t>hr</t>
   </si>
 </sst>
 </file>
@@ -411,18 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA527"/>
+  <dimension ref="A1:Z527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,11 +492,8 @@
       <c r="Z1" s="1">
         <v>118</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -582,13 +570,10 @@
         <v>1</v>
       </c>
       <c r="Z2">
-        <v>7</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -665,13 +650,10 @@
         <v>4</v>
       </c>
       <c r="Z3">
-        <v>24</v>
-      </c>
-      <c r="AA3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -748,13 +730,10 @@
         <v>5</v>
       </c>
       <c r="Z4">
-        <v>26</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>14</v>
       </c>
@@ -831,13 +810,10 @@
         <v>6</v>
       </c>
       <c r="Z5">
-        <v>27</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>17</v>
       </c>
@@ -914,13 +890,10 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>30</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -997,13 +970,10 @@
         <v>8</v>
       </c>
       <c r="Z7">
-        <v>39</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>21</v>
       </c>
@@ -1080,13 +1050,10 @@
         <v>51</v>
       </c>
       <c r="Z8">
-        <v>42</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>22</v>
       </c>
@@ -1163,13 +1130,10 @@
         <v>55</v>
       </c>
       <c r="Z9">
-        <v>44</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -1246,13 +1210,10 @@
         <v>239</v>
       </c>
       <c r="Z10">
-        <v>45</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>37</v>
       </c>
@@ -1329,13 +1290,10 @@
         <v>256</v>
       </c>
       <c r="Z11">
-        <v>88</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>51</v>
       </c>
@@ -1412,13 +1370,10 @@
         <v>263</v>
       </c>
       <c r="Z12">
-        <v>98</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>69</v>
       </c>
@@ -1495,13 +1450,10 @@
         <v>302</v>
       </c>
       <c r="Z13">
-        <v>109</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>71</v>
       </c>
@@ -1578,13 +1530,10 @@
         <v>336</v>
       </c>
       <c r="Z14">
-        <v>136</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>77</v>
       </c>
@@ -1661,13 +1610,10 @@
         <v>350</v>
       </c>
       <c r="Z15">
-        <v>165</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>421</v>
       </c>
@@ -1744,13 +1690,10 @@
         <v>391</v>
       </c>
       <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>462</v>
       </c>
@@ -1827,13 +1770,10 @@
         <v>447</v>
       </c>
       <c r="Z17">
-        <v>2</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>564</v>
       </c>
@@ -1910,13 +1850,10 @@
         <v>473</v>
       </c>
       <c r="Z18">
-        <v>5</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>620</v>
       </c>
@@ -1993,13 +1930,10 @@
         <v>550</v>
       </c>
       <c r="Z19">
-        <v>21</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>763</v>
       </c>
@@ -2076,13 +2010,10 @@
         <v>842</v>
       </c>
       <c r="Z20">
-        <v>22</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>782</v>
       </c>
@@ -2159,13 +2090,10 @@
         <v>963</v>
       </c>
       <c r="Z21">
-        <v>23</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>981</v>
       </c>
@@ -2242,13 +2170,10 @@
         <v>1187</v>
       </c>
       <c r="Z22">
-        <v>26</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>982</v>
       </c>
@@ -2325,13 +2250,10 @@
         <v>1195</v>
       </c>
       <c r="Z23">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1000</v>
       </c>
@@ -2408,13 +2330,10 @@
         <v>1280</v>
       </c>
       <c r="Z24">
-        <v>115</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1059</v>
       </c>
@@ -2491,13 +2410,10 @@
         <v>1316</v>
       </c>
       <c r="Z25">
-        <v>139</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1104</v>
       </c>
@@ -2574,13 +2490,10 @@
         <v>1319</v>
       </c>
       <c r="Z26">
-        <v>140</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1400</v>
       </c>
@@ -2657,13 +2570,10 @@
         <v>1333</v>
       </c>
       <c r="Z27">
-        <v>185</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1486</v>
       </c>
@@ -2740,13 +2650,10 @@
         <v>1437</v>
       </c>
       <c r="Z28">
-        <v>192</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1607</v>
       </c>
@@ -2823,13 +2730,10 @@
         <v>1443</v>
       </c>
       <c r="Z29">
-        <v>277</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1636</v>
       </c>
@@ -2906,13 +2810,10 @@
         <v>1446</v>
       </c>
       <c r="Z30">
-        <v>288</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1767</v>
       </c>
@@ -2989,13 +2890,10 @@
         <v>1456</v>
       </c>
       <c r="Z31">
-        <v>340</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1861</v>
       </c>
@@ -3072,13 +2970,10 @@
         <v>1573</v>
       </c>
       <c r="Z32">
-        <v>345</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1975</v>
       </c>
@@ -3155,13 +3050,10 @@
         <v>1603</v>
       </c>
       <c r="Z33">
-        <v>347</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2099</v>
       </c>
@@ -3238,13 +3130,10 @@
         <v>1620</v>
       </c>
       <c r="Z34">
-        <v>354</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2107</v>
       </c>
@@ -3321,13 +3210,10 @@
         <v>1808</v>
       </c>
       <c r="Z35">
-        <v>357</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2187</v>
       </c>
@@ -3404,13 +3290,10 @@
         <v>1868</v>
       </c>
       <c r="Z36">
-        <v>382</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2222</v>
       </c>
@@ -3487,13 +3370,10 @@
         <v>1916</v>
       </c>
       <c r="Z37">
-        <v>390</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2230</v>
       </c>
@@ -3570,13 +3450,10 @@
         <v>1948</v>
       </c>
       <c r="Z38">
-        <v>467</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2246</v>
       </c>
@@ -3653,13 +3530,10 @@
         <v>1996</v>
       </c>
       <c r="Z39">
-        <v>485</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>2261</v>
       </c>
@@ -3736,13 +3610,10 @@
         <v>2062</v>
       </c>
       <c r="Z40">
-        <v>497</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>2589</v>
       </c>
@@ -3819,13 +3690,10 @@
         <v>2116</v>
       </c>
       <c r="Z41">
-        <v>529</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>2744</v>
       </c>
@@ -3902,13 +3770,10 @@
         <v>2119</v>
       </c>
       <c r="Z42">
-        <v>533</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>2904</v>
       </c>
@@ -3985,13 +3850,10 @@
         <v>2225</v>
       </c>
       <c r="Z43">
-        <v>615</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>2933</v>
       </c>
@@ -4068,13 +3930,10 @@
         <v>2377</v>
       </c>
       <c r="Z44">
-        <v>643</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>2990</v>
       </c>
@@ -4151,13 +4010,10 @@
         <v>2467</v>
       </c>
       <c r="Z45">
-        <v>734</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>3153</v>
       </c>
@@ -4234,13 +4090,10 @@
         <v>2471</v>
       </c>
       <c r="Z46">
-        <v>764</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>3180</v>
       </c>
@@ -4317,13 +4170,10 @@
         <v>2499</v>
       </c>
       <c r="Z47">
-        <v>788</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>3298</v>
       </c>
@@ -4400,13 +4250,10 @@
         <v>2521</v>
       </c>
       <c r="Z48">
-        <v>815</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>3479</v>
       </c>
@@ -4483,13 +4330,10 @@
         <v>2543</v>
       </c>
       <c r="Z49">
-        <v>897</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>3490</v>
       </c>
@@ -4566,13 +4410,10 @@
         <v>2547</v>
       </c>
       <c r="Z50">
-        <v>1023</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>3577</v>
       </c>
@@ -4649,13 +4490,10 @@
         <v>2617</v>
       </c>
       <c r="Z51">
-        <v>1101</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>3694</v>
       </c>
@@ -4732,13 +4570,10 @@
         <v>2668</v>
       </c>
       <c r="Z52">
-        <v>1103</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>3825</v>
       </c>
@@ -4815,13 +4650,10 @@
         <v>2773</v>
       </c>
       <c r="Z53">
-        <v>1147</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>3831</v>
       </c>
@@ -4898,13 +4730,10 @@
         <v>2954</v>
       </c>
       <c r="Z54">
-        <v>1157</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>3858</v>
       </c>
@@ -4978,13 +4807,10 @@
         <v>2988</v>
       </c>
       <c r="Z55">
-        <v>1163</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>3926</v>
       </c>
@@ -5058,13 +4884,10 @@
         <v>3005</v>
       </c>
       <c r="Z56">
-        <v>1398</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>3927</v>
       </c>
@@ -5138,13 +4961,10 @@
         <v>3076</v>
       </c>
       <c r="Z57">
-        <v>1425</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>3932</v>
       </c>
@@ -5218,13 +5038,10 @@
         <v>3110</v>
       </c>
       <c r="Z58">
-        <v>1435</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>4200</v>
       </c>
@@ -5298,13 +5115,10 @@
         <v>3173</v>
       </c>
       <c r="Z59">
-        <v>1449</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>4204</v>
       </c>
@@ -5378,13 +5192,10 @@
         <v>3233</v>
       </c>
       <c r="Z60">
-        <v>1513</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>4278</v>
       </c>
@@ -5458,13 +5269,10 @@
         <v>3237</v>
       </c>
       <c r="Z61">
-        <v>1516</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>4293</v>
       </c>
@@ -5538,13 +5346,10 @@
         <v>3372</v>
       </c>
       <c r="Z62">
-        <v>1547</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>4757</v>
       </c>
@@ -5618,13 +5423,10 @@
         <v>3485</v>
       </c>
       <c r="Z63">
-        <v>1615</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>4758</v>
       </c>
@@ -5698,13 +5500,10 @@
         <v>3593</v>
       </c>
       <c r="Z64">
-        <v>1631</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>4813</v>
       </c>
@@ -5778,13 +5577,10 @@
         <v>3617</v>
       </c>
       <c r="Z65">
-        <v>1640</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>4862</v>
       </c>
@@ -5858,13 +5654,10 @@
         <v>3684</v>
       </c>
       <c r="Z66">
-        <v>1752</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>4863</v>
       </c>
@@ -5938,13 +5731,10 @@
         <v>3755</v>
       </c>
       <c r="Z67">
-        <v>1767</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>4871</v>
       </c>
@@ -6015,13 +5805,10 @@
         <v>3771</v>
       </c>
       <c r="Z68">
-        <v>1797</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>4874</v>
       </c>
@@ -6092,13 +5879,10 @@
         <v>3807</v>
       </c>
       <c r="Z69">
-        <v>1836</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>4974</v>
       </c>
@@ -6169,13 +5953,10 @@
         <v>3825</v>
       </c>
       <c r="Z70">
-        <v>2494</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>5050</v>
       </c>
@@ -6246,13 +6027,10 @@
         <v>3826</v>
       </c>
       <c r="Z71">
-        <v>2560</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>5163</v>
       </c>
@@ -6320,13 +6098,10 @@
         <v>3843</v>
       </c>
       <c r="Z72">
-        <v>2670</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>5193</v>
       </c>
@@ -6394,13 +6169,10 @@
         <v>3967</v>
       </c>
       <c r="Z73">
-        <v>2678</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>5200</v>
       </c>
@@ -6468,13 +6240,10 @@
         <v>3985</v>
       </c>
       <c r="Z74">
-        <v>2766</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>5244</v>
       </c>
@@ -6542,13 +6311,10 @@
         <v>3992</v>
       </c>
       <c r="Z75">
-        <v>2789</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>5356</v>
       </c>
@@ -6616,13 +6382,10 @@
         <v>4040</v>
       </c>
       <c r="Z76">
-        <v>2799</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>5383</v>
       </c>
@@ -6690,13 +6453,10 @@
         <v>4118</v>
       </c>
       <c r="Z77">
-        <v>2811</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>5385</v>
       </c>
@@ -6764,13 +6524,10 @@
         <v>4176</v>
       </c>
       <c r="Z78">
-        <v>2872</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>5393</v>
       </c>
@@ -6838,13 +6595,10 @@
         <v>4346</v>
       </c>
       <c r="Z79">
-        <v>2882</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>5445</v>
       </c>
@@ -6912,13 +6666,10 @@
         <v>4350</v>
       </c>
       <c r="Z80">
-        <v>2925</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>5450</v>
       </c>
@@ -6983,13 +6734,10 @@
         <v>4373</v>
       </c>
       <c r="Z81">
-        <v>2964</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>5451</v>
       </c>
@@ -7054,13 +6802,10 @@
         <v>4432</v>
       </c>
       <c r="Z82">
-        <v>3012</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>5452</v>
       </c>
@@ -7125,13 +6870,10 @@
         <v>4445</v>
       </c>
       <c r="Z83">
-        <v>3019</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>5463</v>
       </c>
@@ -7196,13 +6938,10 @@
         <v>4502</v>
       </c>
       <c r="Z84">
-        <v>3033</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>5464</v>
       </c>
@@ -7267,13 +7006,10 @@
         <v>4505</v>
       </c>
       <c r="Z85">
-        <v>3091</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>5529</v>
       </c>
@@ -7338,13 +7074,10 @@
         <v>4521</v>
       </c>
       <c r="Z86">
-        <v>3195</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>5608</v>
       </c>
@@ -7409,13 +7142,10 @@
         <v>4673</v>
       </c>
       <c r="Z87">
-        <v>3202</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>5610</v>
       </c>
@@ -7480,13 +7210,10 @@
         <v>4785</v>
       </c>
       <c r="Z88">
-        <v>3208</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>5649</v>
       </c>
@@ -7551,13 +7278,10 @@
         <v>4996</v>
       </c>
       <c r="Z89">
-        <v>3250</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>5683</v>
       </c>
@@ -7622,13 +7346,10 @@
         <v>5118</v>
       </c>
       <c r="Z90">
-        <v>3334</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>5746</v>
       </c>
@@ -7693,13 +7414,10 @@
         <v>5129</v>
       </c>
       <c r="Z91">
-        <v>3397</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>5749</v>
       </c>
@@ -7764,13 +7482,10 @@
         <v>5305</v>
       </c>
       <c r="Z92">
-        <v>3561</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>5773</v>
       </c>
@@ -7835,13 +7550,10 @@
         <v>5314</v>
       </c>
       <c r="Z93">
-        <v>3564</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>5777</v>
       </c>
@@ -7906,13 +7618,10 @@
         <v>5315</v>
       </c>
       <c r="Z94">
-        <v>3599</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>5823</v>
       </c>
@@ -7977,13 +7686,10 @@
         <v>5323</v>
       </c>
       <c r="Z95">
-        <v>3602</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>5858</v>
       </c>
@@ -8048,13 +7754,10 @@
         <v>5376</v>
       </c>
       <c r="Z96">
-        <v>3724</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>5874</v>
       </c>
@@ -8119,13 +7822,10 @@
         <v>5440</v>
       </c>
       <c r="Z97">
-        <v>3738</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>5898</v>
       </c>
@@ -8190,13 +7890,10 @@
         <v>5441</v>
       </c>
       <c r="Z98">
-        <v>3746</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>5928</v>
       </c>
@@ -8261,13 +7958,10 @@
         <v>5657</v>
       </c>
       <c r="Z99">
-        <v>3774</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>5932</v>
       </c>
@@ -8332,13 +8026,10 @@
         <v>5665</v>
       </c>
       <c r="Z100">
-        <v>3799</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>5988</v>
       </c>
@@ -8403,13 +8094,10 @@
         <v>5746</v>
       </c>
       <c r="Z101">
-        <v>3821</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>6129</v>
       </c>
@@ -8474,13 +8162,10 @@
         <v>5768</v>
       </c>
       <c r="Z102">
-        <v>3838</v>
-      </c>
-      <c r="AA102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>6168</v>
       </c>
@@ -8545,13 +8230,10 @@
         <v>6119</v>
       </c>
       <c r="Z103">
-        <v>3843</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>6175</v>
       </c>
@@ -8613,13 +8295,10 @@
         <v>6448</v>
       </c>
       <c r="Z104">
-        <v>3887</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>6191</v>
       </c>
@@ -8681,13 +8360,10 @@
         <v>6538</v>
       </c>
       <c r="Z105">
-        <v>3935</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>6288</v>
       </c>
@@ -8749,13 +8425,10 @@
         <v>6617</v>
       </c>
       <c r="Z106">
-        <v>3936</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>6338</v>
       </c>
@@ -8817,13 +8490,10 @@
         <v>6833</v>
       </c>
       <c r="Z107">
-        <v>3937</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>6370</v>
       </c>
@@ -8885,13 +8555,10 @@
         <v>6878</v>
       </c>
       <c r="Z108">
-        <v>3938</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>6371</v>
       </c>
@@ -8953,13 +8620,10 @@
         <v>6929</v>
       </c>
       <c r="Z109">
-        <v>3941</v>
-      </c>
-      <c r="AA109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>6388</v>
       </c>
@@ -9021,13 +8685,10 @@
         <v>6930</v>
       </c>
       <c r="Z110">
-        <v>3950</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>6399</v>
       </c>
@@ -9089,13 +8750,10 @@
         <v>6968</v>
       </c>
       <c r="Z111">
-        <v>4121</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>6452</v>
       </c>
@@ -9157,13 +8815,10 @@
         <v>7007</v>
       </c>
       <c r="Z112">
-        <v>4143</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>6458</v>
       </c>
@@ -9225,13 +8880,10 @@
         <v>7061</v>
       </c>
       <c r="Z113">
-        <v>4310</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>6574</v>
       </c>
@@ -9293,13 +8945,10 @@
         <v>7081</v>
       </c>
       <c r="Z114">
-        <v>4364</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>6576</v>
       </c>
@@ -9361,13 +9010,10 @@
         <v>7108</v>
       </c>
       <c r="Z115">
-        <v>4365</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>6602</v>
       </c>
@@ -9429,13 +9075,10 @@
         <v>7382</v>
       </c>
       <c r="Z116">
-        <v>4366</v>
-      </c>
-      <c r="AA116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>6609</v>
       </c>
@@ -9497,13 +9140,10 @@
         <v>7606</v>
       </c>
       <c r="Z117">
-        <v>4367</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>6628</v>
       </c>
@@ -9565,13 +9205,10 @@
         <v>7647</v>
       </c>
       <c r="Z118">
-        <v>4368</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>6642</v>
       </c>
@@ -9633,13 +9270,10 @@
         <v>7688</v>
       </c>
       <c r="Z119">
-        <v>4394</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>6668</v>
       </c>
@@ -9701,13 +9335,10 @@
         <v>7691</v>
       </c>
       <c r="Z120">
-        <v>4420</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>6691</v>
       </c>
@@ -9769,13 +9400,10 @@
         <v>7776</v>
       </c>
       <c r="Z121">
-        <v>4421</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>6708</v>
       </c>
@@ -9837,13 +9465,10 @@
         <v>7780</v>
       </c>
       <c r="Z122">
-        <v>4468</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>6710</v>
       </c>
@@ -9905,13 +9530,10 @@
         <v>7790</v>
       </c>
       <c r="Z123">
-        <v>4510</v>
-      </c>
-      <c r="AA123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>6717</v>
       </c>
@@ -9973,13 +9595,10 @@
         <v>7791</v>
       </c>
       <c r="Z124">
-        <v>4531</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>6767</v>
       </c>
@@ -10041,13 +9660,10 @@
         <v>7900</v>
       </c>
       <c r="Z125">
-        <v>4563</v>
-      </c>
-      <c r="AA125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>6768</v>
       </c>
@@ -10109,13 +9725,10 @@
         <v>7910</v>
       </c>
       <c r="Z126">
-        <v>4581</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>6879</v>
       </c>
@@ -10177,13 +9790,10 @@
         <v>7946</v>
       </c>
       <c r="Z127">
-        <v>4639</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>6912</v>
       </c>
@@ -10245,13 +9855,10 @@
         <v>8238</v>
       </c>
       <c r="Z128">
-        <v>4664</v>
-      </c>
-      <c r="AA128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>7060</v>
       </c>
@@ -10313,13 +9920,10 @@
         <v>8294</v>
       </c>
       <c r="Z129">
-        <v>4665</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>7077</v>
       </c>
@@ -10381,13 +9985,10 @@
         <v>8296</v>
       </c>
       <c r="Z130">
-        <v>4681</v>
-      </c>
-      <c r="AA130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>7127</v>
       </c>
@@ -10449,13 +10050,10 @@
         <v>8297</v>
       </c>
       <c r="Z131">
-        <v>4691</v>
-      </c>
-      <c r="AA131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>7130</v>
       </c>
@@ -10517,13 +10115,10 @@
         <v>8326</v>
       </c>
       <c r="Z132">
-        <v>4707</v>
-      </c>
-      <c r="AA132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>7189</v>
       </c>
@@ -10582,13 +10177,10 @@
         <v>8351</v>
       </c>
       <c r="Z133">
-        <v>4723</v>
-      </c>
-      <c r="AA133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>7200</v>
       </c>
@@ -10647,13 +10239,10 @@
         <v>8373</v>
       </c>
       <c r="Z134">
-        <v>4755</v>
-      </c>
-      <c r="AA134" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>7202</v>
       </c>
@@ -10712,13 +10301,10 @@
         <v>8393</v>
       </c>
       <c r="Z135">
-        <v>4763</v>
-      </c>
-      <c r="AA135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>7265</v>
       </c>
@@ -10777,13 +10363,10 @@
         <v>8404</v>
       </c>
       <c r="Z136">
-        <v>4790</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>7274</v>
       </c>
@@ -10842,13 +10425,10 @@
         <v>8454</v>
       </c>
       <c r="Z137">
-        <v>4820</v>
-      </c>
-      <c r="AA137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>7277</v>
       </c>
@@ -10907,13 +10487,10 @@
         <v>8542</v>
       </c>
       <c r="Z138">
-        <v>4821</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>7352</v>
       </c>
@@ -10972,13 +10549,10 @@
         <v>8873</v>
       </c>
       <c r="Z139">
-        <v>4822</v>
-      </c>
-      <c r="AA139" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>7445</v>
       </c>
@@ -11037,13 +10611,10 @@
         <v>8876</v>
       </c>
       <c r="Z140">
-        <v>4824</v>
-      </c>
-      <c r="AA140" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>7446</v>
       </c>
@@ -11099,13 +10670,10 @@
         <v>8987</v>
       </c>
       <c r="Z141">
-        <v>4866</v>
-      </c>
-      <c r="AA141" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>7447</v>
       </c>
@@ -11161,13 +10729,10 @@
         <v>9640</v>
       </c>
       <c r="Z142">
-        <v>4877</v>
-      </c>
-      <c r="AA142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>7482</v>
       </c>
@@ -11220,13 +10785,10 @@
         <v>4870</v>
       </c>
       <c r="Z143">
-        <v>4984</v>
-      </c>
-      <c r="AA143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>7500</v>
       </c>
@@ -11279,13 +10841,10 @@
         <v>4871</v>
       </c>
       <c r="Z144">
-        <v>5009</v>
-      </c>
-      <c r="AA144" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>7501</v>
       </c>
@@ -11338,13 +10897,10 @@
         <v>4881</v>
       </c>
       <c r="Z145">
-        <v>5179</v>
-      </c>
-      <c r="AA145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>7507</v>
       </c>
@@ -11397,13 +10953,10 @@
         <v>4899</v>
       </c>
       <c r="Z146">
-        <v>5283</v>
-      </c>
-      <c r="AA146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>7528</v>
       </c>
@@ -11456,13 +11009,10 @@
         <v>4903</v>
       </c>
       <c r="Z147">
-        <v>5339</v>
-      </c>
-      <c r="AA147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>7612</v>
       </c>
@@ -11515,13 +11065,10 @@
         <v>4923</v>
       </c>
       <c r="Z148">
-        <v>5342</v>
-      </c>
-      <c r="AA148" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>7645</v>
       </c>
@@ -11574,13 +11121,10 @@
         <v>4983</v>
       </c>
       <c r="Z149">
-        <v>5349</v>
-      </c>
-      <c r="AA149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>7670</v>
       </c>
@@ -11633,13 +11177,10 @@
         <v>4984</v>
       </c>
       <c r="Z150">
-        <v>5375</v>
-      </c>
-      <c r="AA150" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>7724</v>
       </c>
@@ -11692,13 +11233,10 @@
         <v>5013</v>
       </c>
       <c r="Z151">
-        <v>5378</v>
-      </c>
-      <c r="AA151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>7730</v>
       </c>
@@ -11751,13 +11289,10 @@
         <v>5016</v>
       </c>
       <c r="Z152">
-        <v>5403</v>
-      </c>
-      <c r="AA152" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>7762</v>
       </c>
@@ -11810,13 +11345,10 @@
         <v>5021</v>
       </c>
       <c r="Z153">
-        <v>5441</v>
-      </c>
-      <c r="AA153" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>7780</v>
       </c>
@@ -11866,13 +11398,10 @@
         <v>5055</v>
       </c>
       <c r="Z154">
-        <v>5525</v>
-      </c>
-      <c r="AA154" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>7806</v>
       </c>
@@ -11922,13 +11451,10 @@
         <v>5171</v>
       </c>
       <c r="Z155">
-        <v>5585</v>
-      </c>
-      <c r="AA155" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>7824</v>
       </c>
@@ -11978,13 +11504,10 @@
         <v>5230</v>
       </c>
       <c r="Z156">
-        <v>5658</v>
-      </c>
-      <c r="AA156" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>7917</v>
       </c>
@@ -12034,13 +11557,10 @@
         <v>5272</v>
       </c>
       <c r="Z157">
-        <v>5692</v>
-      </c>
-      <c r="AA157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>7935</v>
       </c>
@@ -12090,13 +11610,10 @@
         <v>5759</v>
       </c>
       <c r="Z158">
-        <v>5717</v>
-      </c>
-      <c r="AA158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>7949</v>
       </c>
@@ -12146,13 +11663,10 @@
         <v>5769</v>
       </c>
       <c r="Z159">
-        <v>5826</v>
-      </c>
-      <c r="AA159" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>7950</v>
       </c>
@@ -12202,13 +11716,10 @@
         <v>5771</v>
       </c>
       <c r="Z160">
-        <v>5860</v>
-      </c>
-      <c r="AA160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>7974</v>
       </c>
@@ -12255,13 +11766,10 @@
         <v>5506</v>
       </c>
       <c r="Z161">
-        <v>5863</v>
-      </c>
-      <c r="AA161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>7976</v>
       </c>
@@ -12308,13 +11816,10 @@
         <v>5521</v>
       </c>
       <c r="Z162">
-        <v>5893</v>
-      </c>
-      <c r="AA162" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>8005</v>
       </c>
@@ -12361,13 +11866,10 @@
         <v>5558</v>
       </c>
       <c r="Z163">
-        <v>5894</v>
-      </c>
-      <c r="AA163" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>8023</v>
       </c>
@@ -12414,13 +11916,10 @@
         <v>5559</v>
       </c>
       <c r="Z164">
-        <v>5917</v>
-      </c>
-      <c r="AA164" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>8053</v>
       </c>
@@ -12467,13 +11966,10 @@
         <v>5605</v>
       </c>
       <c r="Z165">
-        <v>5921</v>
-      </c>
-      <c r="AA165" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6285</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>8070</v>
       </c>
@@ -12520,13 +12016,10 @@
         <v>5651</v>
       </c>
       <c r="Z166">
-        <v>5923</v>
-      </c>
-      <c r="AA166" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>8152</v>
       </c>
@@ -12573,13 +12066,10 @@
         <v>5710</v>
       </c>
       <c r="Z167">
-        <v>5933</v>
-      </c>
-      <c r="AA167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>8193</v>
       </c>
@@ -12623,13 +12113,10 @@
         <v>2884</v>
       </c>
       <c r="Z168">
-        <v>5947</v>
-      </c>
-      <c r="AA168" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>8214</v>
       </c>
@@ -12673,13 +12160,10 @@
         <v>2909</v>
       </c>
       <c r="Z169">
-        <v>5961</v>
-      </c>
-      <c r="AA169" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>8217</v>
       </c>
@@ -12723,13 +12207,10 @@
         <v>2923</v>
       </c>
       <c r="Z170">
-        <v>6009</v>
-      </c>
-      <c r="AA170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>8245</v>
       </c>
@@ -12773,13 +12254,10 @@
         <v>2926</v>
       </c>
       <c r="Z171">
-        <v>6015</v>
-      </c>
-      <c r="AA171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>8258</v>
       </c>
@@ -12823,13 +12301,10 @@
         <v>2931</v>
       </c>
       <c r="Z172">
-        <v>6046</v>
-      </c>
-      <c r="AA172" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>8266</v>
       </c>
@@ -12873,13 +12348,10 @@
         <v>2942</v>
       </c>
       <c r="Z173">
-        <v>6090</v>
-      </c>
-      <c r="AA173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>8346</v>
       </c>
@@ -12923,13 +12395,10 @@
         <v>2944</v>
       </c>
       <c r="Z174">
-        <v>6093</v>
-      </c>
-      <c r="AA174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>8351</v>
       </c>
@@ -12973,13 +12442,10 @@
         <v>2987</v>
       </c>
       <c r="Z175">
-        <v>6126</v>
-      </c>
-      <c r="AA175" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6679</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>8352</v>
       </c>
@@ -13023,13 +12489,10 @@
         <v>2990</v>
       </c>
       <c r="Z176">
-        <v>6192</v>
-      </c>
-      <c r="AA176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>8410</v>
       </c>
@@ -13073,13 +12536,10 @@
         <v>3036</v>
       </c>
       <c r="Z177">
-        <v>6245</v>
-      </c>
-      <c r="AA177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>8449</v>
       </c>
@@ -13123,13 +12583,10 @@
         <v>3037</v>
       </c>
       <c r="Z178">
-        <v>6276</v>
-      </c>
-      <c r="AA178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>8480</v>
       </c>
@@ -13173,13 +12630,10 @@
         <v>3064</v>
       </c>
       <c r="Z179">
-        <v>6285</v>
-      </c>
-      <c r="AA179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>8510</v>
       </c>
@@ -13223,13 +12677,10 @@
         <v>3070</v>
       </c>
       <c r="Z180">
-        <v>6323</v>
-      </c>
-      <c r="AA180" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>8537</v>
       </c>
@@ -13273,13 +12724,10 @@
         <v>3073</v>
       </c>
       <c r="Z181">
-        <v>6363</v>
-      </c>
-      <c r="AA181" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>8538</v>
       </c>
@@ -13323,13 +12771,10 @@
         <v>3075</v>
       </c>
       <c r="Z182">
-        <v>6408</v>
-      </c>
-      <c r="AA182" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>8547</v>
       </c>
@@ -13373,13 +12818,10 @@
         <v>3081</v>
       </c>
       <c r="Z183">
-        <v>6543</v>
-      </c>
-      <c r="AA183" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>8548</v>
       </c>
@@ -13423,13 +12865,10 @@
         <v>3085</v>
       </c>
       <c r="Z184">
-        <v>6544</v>
-      </c>
-      <c r="AA184" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>8556</v>
       </c>
@@ -13473,13 +12912,10 @@
         <v>3125</v>
       </c>
       <c r="Z185">
-        <v>6571</v>
-      </c>
-      <c r="AA185" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>8606</v>
       </c>
@@ -13523,13 +12959,10 @@
         <v>3164</v>
       </c>
       <c r="Z186">
-        <v>6572</v>
-      </c>
-      <c r="AA186" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>8619</v>
       </c>
@@ -13573,13 +13006,10 @@
         <v>3165</v>
       </c>
       <c r="Z187">
-        <v>6603</v>
-      </c>
-      <c r="AA187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>8658</v>
       </c>
@@ -13623,13 +13053,10 @@
         <v>3192</v>
       </c>
       <c r="Z188">
-        <v>6678</v>
-      </c>
-      <c r="AA188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>8662</v>
       </c>
@@ -13673,13 +13100,10 @@
         <v>3194</v>
       </c>
       <c r="Z189">
-        <v>6679</v>
-      </c>
-      <c r="AA189" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7213</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>8760</v>
       </c>
@@ -13723,13 +13147,10 @@
         <v>3196</v>
       </c>
       <c r="Z190">
-        <v>6914</v>
-      </c>
-      <c r="AA190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>8789</v>
       </c>
@@ -13773,13 +13194,10 @@
         <v>3222</v>
       </c>
       <c r="Z191">
-        <v>6918</v>
-      </c>
-      <c r="AA191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>8813</v>
       </c>
@@ -13823,13 +13241,10 @@
         <v>3244</v>
       </c>
       <c r="Z192">
-        <v>6960</v>
-      </c>
-      <c r="AA192" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>8825</v>
       </c>
@@ -13873,13 +13288,10 @@
         <v>3252</v>
       </c>
       <c r="Z193">
-        <v>6976</v>
-      </c>
-      <c r="AA193" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>8860</v>
       </c>
@@ -13923,13 +13335,10 @@
         <v>3301</v>
       </c>
       <c r="Z194">
-        <v>7023</v>
-      </c>
-      <c r="AA194" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7409</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>8877</v>
       </c>
@@ -13973,13 +13382,10 @@
         <v>3419</v>
       </c>
       <c r="Z195">
-        <v>7024</v>
-      </c>
-      <c r="AA195" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>8916</v>
       </c>
@@ -14023,13 +13429,10 @@
         <v>3421</v>
       </c>
       <c r="Z196">
-        <v>7073</v>
-      </c>
-      <c r="AA196" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>8917</v>
       </c>
@@ -14073,13 +13476,10 @@
         <v>3422</v>
       </c>
       <c r="Z197">
-        <v>7102</v>
-      </c>
-      <c r="AA197" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>8920</v>
       </c>
@@ -14123,13 +13523,10 @@
         <v>3423</v>
       </c>
       <c r="Z198">
-        <v>7109</v>
-      </c>
-      <c r="AA198" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>8947</v>
       </c>
@@ -14173,13 +13570,10 @@
         <v>3424</v>
       </c>
       <c r="Z199">
-        <v>7152</v>
-      </c>
-      <c r="AA199" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>8949</v>
       </c>
@@ -14223,13 +13617,10 @@
         <v>3426</v>
       </c>
       <c r="Z200">
-        <v>7160</v>
-      </c>
-      <c r="AA200" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>9048</v>
       </c>
@@ -14273,13 +13664,10 @@
         <v>3427</v>
       </c>
       <c r="Z201">
-        <v>7176</v>
-      </c>
-      <c r="AA201" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>9055</v>
       </c>
@@ -14323,13 +13711,10 @@
         <v>3428</v>
       </c>
       <c r="Z202">
-        <v>7198</v>
-      </c>
-      <c r="AA202" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7581</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>9065</v>
       </c>
@@ -14373,13 +13758,10 @@
         <v>3443</v>
       </c>
       <c r="Z203">
-        <v>7213</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>9090</v>
       </c>
@@ -14423,13 +13805,10 @@
         <v>3456</v>
       </c>
       <c r="Z204">
-        <v>7217</v>
-      </c>
-      <c r="AA204" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>9107</v>
       </c>
@@ -14473,13 +13852,10 @@
         <v>3485</v>
       </c>
       <c r="Z205">
-        <v>7219</v>
-      </c>
-      <c r="AA205" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7659</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>9130</v>
       </c>
@@ -14523,13 +13899,10 @@
         <v>3519</v>
       </c>
       <c r="Z206">
-        <v>7343</v>
-      </c>
-      <c r="AA206" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>9142</v>
       </c>
@@ -14573,13 +13946,10 @@
         <v>3594</v>
       </c>
       <c r="Z207">
-        <v>7372</v>
-      </c>
-      <c r="AA207" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>9256</v>
       </c>
@@ -14623,13 +13993,10 @@
         <v>3615</v>
       </c>
       <c r="Z208">
-        <v>7409</v>
-      </c>
-      <c r="AA208" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7887</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>9286</v>
       </c>
@@ -14673,13 +14040,10 @@
         <v>3616</v>
       </c>
       <c r="Z209">
-        <v>7454</v>
-      </c>
-      <c r="AA209" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>9341</v>
       </c>
@@ -14723,13 +14087,10 @@
         <v>3617</v>
       </c>
       <c r="Z210">
-        <v>7463</v>
-      </c>
-      <c r="AA210" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>9360</v>
       </c>
@@ -14773,13 +14134,10 @@
         <v>3660</v>
       </c>
       <c r="Z211">
-        <v>7511</v>
-      </c>
-      <c r="AA211" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>9409</v>
       </c>
@@ -14823,13 +14181,10 @@
         <v>3707</v>
       </c>
       <c r="Z212">
-        <v>7520</v>
-      </c>
-      <c r="AA212" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>9440</v>
       </c>
@@ -14873,13 +14228,10 @@
         <v>3709</v>
       </c>
       <c r="Z213">
-        <v>7521</v>
-      </c>
-      <c r="AA213" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>9456</v>
       </c>
@@ -14923,13 +14275,10 @@
         <v>3767</v>
       </c>
       <c r="Z214">
-        <v>7525</v>
-      </c>
-      <c r="AA214" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8035</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>9468</v>
       </c>
@@ -14973,13 +14322,10 @@
         <v>3772</v>
       </c>
       <c r="Z215">
-        <v>7530</v>
-      </c>
-      <c r="AA215" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8036</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>9474</v>
       </c>
@@ -15023,13 +14369,10 @@
         <v>3814</v>
       </c>
       <c r="Z216">
-        <v>7581</v>
-      </c>
-      <c r="AA216" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8038</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>9553</v>
       </c>
@@ -15073,13 +14416,10 @@
         <v>3846</v>
       </c>
       <c r="Z217">
-        <v>7589</v>
-      </c>
-      <c r="AA217" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>9590</v>
       </c>
@@ -15123,13 +14463,10 @@
         <v>3859</v>
       </c>
       <c r="Z218">
-        <v>7637</v>
-      </c>
-      <c r="AA218" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>9619</v>
       </c>
@@ -15173,13 +14510,10 @@
         <v>3908</v>
       </c>
       <c r="Z219">
-        <v>7659</v>
-      </c>
-      <c r="AA219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>9639</v>
       </c>
@@ -15223,13 +14557,10 @@
         <v>3916</v>
       </c>
       <c r="Z220">
-        <v>7673</v>
-      </c>
-      <c r="AA220" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>9681</v>
       </c>
@@ -15273,13 +14604,10 @@
         <v>3983</v>
       </c>
       <c r="Z221">
-        <v>7700</v>
-      </c>
-      <c r="AA221" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>9682</v>
       </c>
@@ -15323,13 +14651,10 @@
         <v>4022</v>
       </c>
       <c r="Z222">
-        <v>7887</v>
-      </c>
-      <c r="AA222" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8282</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>9715</v>
       </c>
@@ -15373,13 +14698,10 @@
         <v>4045</v>
       </c>
       <c r="Z223">
-        <v>7888</v>
-      </c>
-      <c r="AA223" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>9726</v>
       </c>
@@ -15423,13 +14745,10 @@
         <v>4047</v>
       </c>
       <c r="Z224">
-        <v>7891</v>
-      </c>
-      <c r="AA224" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8314</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>9745</v>
       </c>
@@ -15473,13 +14792,10 @@
         <v>4049</v>
       </c>
       <c r="Z225">
-        <v>7909</v>
-      </c>
-      <c r="AA225" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>9989</v>
       </c>
@@ -15523,13 +14839,10 @@
         <v>4051</v>
       </c>
       <c r="Z226">
-        <v>7980</v>
-      </c>
-      <c r="AA226" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>10033</v>
       </c>
@@ -15573,13 +14886,10 @@
         <v>4055</v>
       </c>
       <c r="Z227">
-        <v>8034</v>
-      </c>
-      <c r="AA227" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>10088</v>
       </c>
@@ -15623,13 +14933,10 @@
         <v>4094</v>
       </c>
       <c r="Z228">
-        <v>8035</v>
-      </c>
-      <c r="AA228" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>10174</v>
       </c>
@@ -15673,13 +14980,10 @@
         <v>4102</v>
       </c>
       <c r="Z229">
-        <v>8036</v>
-      </c>
-      <c r="AA229" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>10203</v>
       </c>
@@ -15723,13 +15027,10 @@
         <v>4118</v>
       </c>
       <c r="Z230">
-        <v>8038</v>
-      </c>
-      <c r="AA230" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>10265</v>
       </c>
@@ -15773,13 +15074,10 @@
         <v>4141</v>
       </c>
       <c r="Z231">
-        <v>8070</v>
-      </c>
-      <c r="AA231" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>10294</v>
       </c>
@@ -15823,13 +15121,10 @@
         <v>4194</v>
       </c>
       <c r="Z232">
-        <v>8146</v>
-      </c>
-      <c r="AA232" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8663</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>10337</v>
       </c>
@@ -15873,13 +15168,10 @@
         <v>4205</v>
       </c>
       <c r="Z233">
-        <v>8205</v>
-      </c>
-      <c r="AA233" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>10397</v>
       </c>
@@ -15923,13 +15215,10 @@
         <v>4227</v>
       </c>
       <c r="Z234">
-        <v>8219</v>
-      </c>
-      <c r="AA234" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>10489</v>
       </c>
@@ -15973,13 +15262,10 @@
         <v>4365</v>
       </c>
       <c r="Z235">
-        <v>8281</v>
-      </c>
-      <c r="AA235" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>10511</v>
       </c>
@@ -16023,13 +15309,10 @@
         <v>4368</v>
       </c>
       <c r="Z236">
-        <v>8282</v>
-      </c>
-      <c r="AA236" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>10586</v>
       </c>
@@ -16073,13 +15356,10 @@
         <v>4380</v>
       </c>
       <c r="Z237">
-        <v>8289</v>
-      </c>
-      <c r="AA237" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>10614</v>
       </c>
@@ -16123,13 +15403,10 @@
         <v>4392</v>
       </c>
       <c r="Z238">
-        <v>8314</v>
-      </c>
-      <c r="AA238" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>10651</v>
       </c>
@@ -16173,13 +15450,10 @@
         <v>4402</v>
       </c>
       <c r="Z239">
-        <v>8333</v>
-      </c>
-      <c r="AA239" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>10688</v>
       </c>
@@ -16223,13 +15497,10 @@
         <v>4419</v>
       </c>
       <c r="Z240">
-        <v>8368</v>
-      </c>
-      <c r="AA240" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>10701</v>
       </c>
@@ -16273,13 +15544,10 @@
         <v>4425</v>
       </c>
       <c r="Z241">
-        <v>8369</v>
-      </c>
-      <c r="AA241" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>10710</v>
       </c>
@@ -16323,13 +15591,10 @@
         <v>4444</v>
       </c>
       <c r="Z242">
-        <v>8371</v>
-      </c>
-      <c r="AA242" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>10717</v>
       </c>
@@ -16373,13 +15638,10 @@
         <v>4461</v>
       </c>
       <c r="Z243">
-        <v>8446</v>
-      </c>
-      <c r="AA243" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>10952</v>
       </c>
@@ -16423,13 +15685,10 @@
         <v>4475</v>
       </c>
       <c r="Z244">
-        <v>8467</v>
-      </c>
-      <c r="AA244" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>10956</v>
       </c>
@@ -16473,13 +15732,10 @@
         <v>4516</v>
       </c>
       <c r="Z245">
-        <v>8580</v>
-      </c>
-      <c r="AA245" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9456</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>11010</v>
       </c>
@@ -16523,13 +15779,10 @@
         <v>4530</v>
       </c>
       <c r="Z246">
-        <v>8663</v>
-      </c>
-      <c r="AA246" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9494</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>11011</v>
       </c>
@@ -16573,13 +15826,10 @@
         <v>4541</v>
       </c>
       <c r="Z247">
-        <v>8752</v>
-      </c>
-      <c r="AA247" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>11031</v>
       </c>
@@ -16623,13 +15873,10 @@
         <v>4548</v>
       </c>
       <c r="Z248">
-        <v>8771</v>
-      </c>
-      <c r="AA248" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>11035</v>
       </c>
@@ -16673,13 +15920,10 @@
         <v>4576</v>
       </c>
       <c r="Z249">
-        <v>8772</v>
-      </c>
-      <c r="AA249" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9668</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>11088</v>
       </c>
@@ -16723,13 +15967,10 @@
         <v>4577</v>
       </c>
       <c r="Z250">
-        <v>8774</v>
-      </c>
-      <c r="AA250" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+        <v>9747</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>11104</v>
       </c>
@@ -16773,13 +16014,10 @@
         <v>4578</v>
       </c>
       <c r="Z251">
-        <v>8790</v>
-      </c>
-      <c r="AA251" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+        <v>10515</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>11105</v>
       </c>
@@ -16823,13 +16061,10 @@
         <v>4585</v>
       </c>
       <c r="Z252">
-        <v>8812</v>
-      </c>
-      <c r="AA252" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+        <v>10545</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>11137</v>
       </c>
@@ -16872,14 +16107,8 @@
       <c r="N253">
         <v>4601</v>
       </c>
-      <c r="Z253">
-        <v>8932</v>
-      </c>
-      <c r="AA253" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>11216</v>
       </c>
@@ -16922,14 +16151,8 @@
       <c r="N254">
         <v>4621</v>
       </c>
-      <c r="Z254">
-        <v>8958</v>
-      </c>
-      <c r="AA254" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>11221</v>
       </c>
@@ -16972,14 +16195,8 @@
       <c r="N255">
         <v>4635</v>
       </c>
-      <c r="Z255">
-        <v>8997</v>
-      </c>
-      <c r="AA255" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>11251</v>
       </c>
@@ -17022,14 +16239,8 @@
       <c r="N256">
         <v>4678</v>
       </c>
-      <c r="Z256">
-        <v>8998</v>
-      </c>
-      <c r="AA256" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>11273</v>
       </c>
@@ -17072,14 +16283,8 @@
       <c r="N257">
         <v>4680</v>
       </c>
-      <c r="Z257">
-        <v>9076</v>
-      </c>
-      <c r="AA257" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>11295</v>
       </c>
@@ -17122,14 +16327,8 @@
       <c r="N258">
         <v>4690</v>
       </c>
-      <c r="Z258">
-        <v>9106</v>
-      </c>
-      <c r="AA258" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>11321</v>
       </c>
@@ -17172,14 +16371,8 @@
       <c r="N259">
         <v>4697</v>
       </c>
-      <c r="Z259">
-        <v>9456</v>
-      </c>
-      <c r="AA259" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>11324</v>
       </c>
@@ -17222,14 +16415,8 @@
       <c r="N260">
         <v>4705</v>
       </c>
-      <c r="Z260">
-        <v>9494</v>
-      </c>
-      <c r="AA260" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>11333</v>
       </c>
@@ -17269,14 +16456,8 @@
       <c r="N261">
         <v>4717</v>
       </c>
-      <c r="Z261">
-        <v>9495</v>
-      </c>
-      <c r="AA261" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>11354</v>
       </c>
@@ -17316,14 +16497,8 @@
       <c r="N262">
         <v>4733</v>
       </c>
-      <c r="Z262">
-        <v>9598</v>
-      </c>
-      <c r="AA262" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>11372</v>
       </c>
@@ -17363,14 +16538,8 @@
       <c r="N263">
         <v>4740</v>
       </c>
-      <c r="Z263">
-        <v>9668</v>
-      </c>
-      <c r="AA263" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>11385</v>
       </c>
@@ -17410,14 +16579,8 @@
       <c r="N264">
         <v>4762</v>
       </c>
-      <c r="Z264">
-        <v>9747</v>
-      </c>
-      <c r="AA264" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>11424</v>
       </c>
@@ -17457,14 +16620,8 @@
       <c r="N265">
         <v>4766</v>
       </c>
-      <c r="Z265">
-        <v>10515</v>
-      </c>
-      <c r="AA265" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>11441</v>
       </c>
@@ -17504,14 +16661,8 @@
       <c r="N266">
         <v>4810</v>
       </c>
-      <c r="Z266">
-        <v>10545</v>
-      </c>
-      <c r="AA266" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>11450</v>
       </c>
@@ -17552,7 +16703,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>11452</v>
       </c>
@@ -17593,7 +16744,7 @@
         <v>4843</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>11459</v>
       </c>
@@ -17634,7 +16785,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>11475</v>
       </c>
@@ -17675,7 +16826,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>11500</v>
       </c>
@@ -17716,7 +16867,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>11510</v>
       </c>
@@ -17757,7 +16908,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>11541</v>
       </c>
@@ -17798,7 +16949,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>11546</v>
       </c>
@@ -17839,7 +16990,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>11565</v>
       </c>
@@ -17880,7 +17031,7 @@
         <v>4871</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>11575</v>
       </c>
@@ -17921,7 +17072,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>11576</v>
       </c>
@@ -17962,7 +17113,7 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>11666</v>
       </c>
@@ -18003,7 +17154,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>11710</v>
       </c>
@@ -18044,7 +17195,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>11714</v>
       </c>
@@ -18085,7 +17236,7 @@
         <v>4986</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>11763</v>
       </c>
@@ -18126,7 +17277,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>11771</v>
       </c>
@@ -18167,7 +17318,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>11793</v>
       </c>
@@ -18208,7 +17359,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>11822</v>
       </c>
@@ -18249,7 +17400,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>11830</v>
       </c>
@@ -18290,7 +17441,7 @@
         <v>5203</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>11845</v>
       </c>
@@ -18331,7 +17482,7 @@
         <v>5239</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>11864</v>
       </c>
@@ -18372,7 +17523,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>11873</v>
       </c>
@@ -18413,7 +17564,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>11882</v>
       </c>
@@ -18454,7 +17605,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>11928</v>
       </c>
@@ -18495,7 +17646,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>11929</v>
       </c>
@@ -18536,7 +17687,7 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>11951</v>
       </c>
@@ -18577,7 +17728,7 @@
         <v>5630</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>11955</v>
       </c>
@@ -18618,7 +17769,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>11989</v>
       </c>
@@ -18659,7 +17810,7 @@
         <v>5640</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>12000</v>
       </c>
@@ -18697,7 +17848,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>12035</v>
       </c>
@@ -18735,7 +17886,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>12066</v>
       </c>
@@ -18773,7 +17924,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>12165</v>
       </c>
@@ -18811,7 +17962,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>12261</v>
       </c>
@@ -18849,7 +18000,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>12281</v>
       </c>
@@ -18887,7 +18038,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>12356</v>
       </c>
@@ -18925,7 +18076,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>12412</v>
       </c>
@@ -18963,7 +18114,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>12435</v>
       </c>
@@ -19001,7 +18152,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>12462</v>
       </c>
@@ -19039,7 +18190,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>12466</v>
       </c>
@@ -19077,7 +18228,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>12471</v>
       </c>
@@ -19115,7 +18266,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>12473</v>
       </c>
@@ -19153,7 +18304,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>12481</v>
       </c>
@@ -19191,7 +18342,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>12503</v>
       </c>
@@ -19229,7 +18380,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>12564</v>
       </c>
@@ -19267,7 +18418,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>12565</v>
       </c>
@@ -19305,7 +18456,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>12628</v>
       </c>
@@ -19343,7 +18494,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>12684</v>
       </c>
@@ -19381,7 +18532,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>12799</v>
       </c>
@@ -19419,7 +18570,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>12855</v>
       </c>
@@ -19457,7 +18608,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>12859</v>
       </c>
@@ -19495,7 +18646,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>12891</v>
       </c>
@@ -19533,7 +18684,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>12892</v>
       </c>
@@ -19571,7 +18722,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>12898</v>
       </c>
@@ -19609,7 +18760,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>12906</v>
       </c>
@@ -19647,7 +18798,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>12920</v>
       </c>
@@ -19685,7 +18836,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>12925</v>
       </c>
@@ -19723,7 +18874,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>12993</v>
       </c>
@@ -19761,7 +18912,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>13002</v>
       </c>
@@ -19799,7 +18950,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>13025</v>
       </c>
@@ -19837,7 +18988,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>13044</v>
       </c>
@@ -19875,7 +19026,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>13053</v>
       </c>
@@ -19913,7 +19064,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>13113</v>
       </c>
@@ -19951,7 +19102,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>13157</v>
       </c>
@@ -19989,7 +19140,7 @@
         <v>3662</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>13163</v>
       </c>
@@ -20027,7 +19178,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>13221</v>
       </c>
@@ -20065,7 +19216,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>13296</v>
       </c>
@@ -20103,7 +19254,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>13320</v>
       </c>
@@ -20141,7 +19292,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>13342</v>
       </c>
@@ -20179,7 +19330,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>13364</v>
       </c>
@@ -20217,7 +19368,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>13385</v>
       </c>
@@ -20255,7 +19406,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>13455</v>
       </c>
@@ -20293,7 +19444,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>13565</v>
       </c>
@@ -20331,7 +19482,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>13631</v>
       </c>
@@ -20369,7 +19520,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>13678</v>
       </c>
@@ -20407,7 +19558,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>13790</v>
       </c>
@@ -20445,7 +19596,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>13801</v>
       </c>
@@ -20483,7 +19634,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>13810</v>
       </c>
@@ -20521,7 +19672,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>13834</v>
       </c>
@@ -20559,7 +19710,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>13839</v>
       </c>
@@ -20597,7 +19748,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>13870</v>
       </c>
@@ -20635,7 +19786,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>13919</v>
       </c>
@@ -20673,7 +19824,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>13973</v>
       </c>
@@ -20711,7 +19862,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>13988</v>
       </c>
@@ -20749,7 +19900,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>13998</v>
       </c>
@@ -20787,7 +19938,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>13999</v>
       </c>
@@ -20825,7 +19976,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>14009</v>
       </c>
@@ -20860,7 +20011,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>14012</v>
       </c>
@@ -20895,7 +20046,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>14013</v>
       </c>
@@ -20930,7 +20081,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>14079</v>
       </c>
@@ -20965,7 +20116,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>14155</v>
       </c>
@@ -21000,7 +20151,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>14172</v>
       </c>
@@ -21035,7 +20186,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>14213</v>
       </c>
@@ -21070,7 +20221,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>14214</v>
       </c>
@@ -21105,7 +20256,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>14215</v>
       </c>
@@ -21140,7 +20291,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>14217</v>
       </c>
@@ -21175,7 +20326,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>14225</v>
       </c>
@@ -21210,7 +20361,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>14255</v>
       </c>
@@ -21245,7 +20396,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>14266</v>
       </c>
@@ -21280,7 +20431,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>14344</v>
       </c>
@@ -21315,7 +20466,7 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>14354</v>
       </c>
@@ -21350,7 +20501,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>14368</v>
       </c>
@@ -21385,7 +20536,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>14417</v>
       </c>
@@ -21420,7 +20571,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>14434</v>
       </c>
@@ -21455,7 +20606,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>14449</v>
       </c>
@@ -21487,7 +20638,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>14462</v>
       </c>
@@ -21519,7 +20670,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>14490</v>
       </c>
@@ -21551,7 +20702,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>14494</v>
       </c>
@@ -21583,7 +20734,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>14580</v>
       </c>
@@ -21615,7 +20766,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>14592</v>
       </c>
@@ -21647,7 +20798,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>14705</v>
       </c>
@@ -21679,7 +20830,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>14715</v>
       </c>
@@ -21711,7 +20862,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>14721</v>
       </c>
@@ -21743,7 +20894,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>14722</v>
       </c>
@@ -21775,7 +20926,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>14747</v>
       </c>
@@ -21807,7 +20958,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>14780</v>
       </c>
@@ -21839,7 +20990,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>14832</v>
       </c>
@@ -21871,7 +21022,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>14856</v>
       </c>
@@ -21903,7 +21054,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>14883</v>
       </c>
@@ -21935,7 +21086,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>14892</v>
       </c>
@@ -21967,7 +21118,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>14903</v>
       </c>
@@ -21999,7 +21150,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>14920</v>
       </c>
@@ -22031,7 +21182,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>14930</v>
       </c>
@@ -22063,7 +21214,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>15000</v>
       </c>
@@ -22092,7 +21243,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>15046</v>
       </c>
@@ -22121,7 +21272,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>15124</v>
       </c>
@@ -22150,7 +21301,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>15155</v>
       </c>
@@ -22179,7 +21330,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>15205</v>
       </c>
@@ -22208,7 +21359,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>15223</v>
       </c>
@@ -22237,7 +21388,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>15263</v>
       </c>
@@ -22266,7 +21417,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>15264</v>
       </c>
@@ -22295,7 +21446,7 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>15276</v>
       </c>
@@ -22324,7 +21475,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>15301</v>
       </c>
@@ -22353,7 +21504,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>15323</v>
       </c>
@@ -22382,7 +21533,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>15361</v>
       </c>
@@ -22411,7 +21562,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>15404</v>
       </c>
@@ -22440,7 +21591,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>15405</v>
       </c>
@@ -22469,7 +21620,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>15418</v>
       </c>
@@ -22498,7 +21649,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>15427</v>
       </c>
@@ -22527,7 +21678,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>15461</v>
       </c>
@@ -22556,7 +21707,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>15465</v>
       </c>
@@ -22585,7 +21736,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>15472</v>
       </c>
@@ -22614,7 +21765,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>15540</v>
       </c>
@@ -22643,7 +21794,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>15544</v>
       </c>
@@ -22672,7 +21823,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>15560</v>
       </c>
@@ -22701,7 +21852,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>15572</v>
       </c>
@@ -22730,7 +21881,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>15578</v>
       </c>
@@ -22759,7 +21910,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>15580</v>
       </c>
@@ -22788,7 +21939,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>15581</v>
       </c>
@@ -22817,7 +21968,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>15582</v>
       </c>
@@ -22846,7 +21997,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>15709</v>
       </c>
@@ -22875,7 +22026,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>15736</v>
       </c>
@@ -22904,7 +22055,7 @@
         <v>4361</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>15789</v>
       </c>
@@ -22933,7 +22084,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>15903</v>
       </c>
@@ -22962,7 +22113,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>15927</v>
       </c>
@@ -22991,7 +22142,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>15928</v>
       </c>
@@ -23020,7 +22171,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>15977</v>
       </c>
@@ -23049,7 +22200,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>15987</v>
       </c>
@@ -23078,7 +22229,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>16027</v>
       </c>
@@ -23107,7 +22258,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>16032</v>
       </c>
@@ -23136,7 +22287,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>16045</v>
       </c>
@@ -23165,7 +22316,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>16090</v>
       </c>
@@ -23194,7 +22345,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>16102</v>
       </c>
@@ -23223,7 +22374,7 @@
         <v>4426</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>16136</v>
       </c>
@@ -23252,7 +22403,7 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>16150</v>
       </c>
@@ -23281,7 +22432,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>16168</v>
       </c>
@@ -23310,7 +22461,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>16204</v>
       </c>
@@ -23339,7 +22490,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>16215</v>
       </c>
@@ -23368,7 +22519,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>16243</v>
       </c>
@@ -23397,7 +22548,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>16371</v>
       </c>
@@ -23426,7 +22577,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>16373</v>
       </c>
@@ -23455,7 +22606,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>16420</v>
       </c>
@@ -23484,7 +22635,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>16425</v>
       </c>
@@ -23513,7 +22664,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>16596</v>
       </c>
@@ -23542,7 +22693,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>16609</v>
       </c>
@@ -23571,7 +22722,7 @@
         <v>4508</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>16757</v>
       </c>
@@ -23600,7 +22751,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>16900</v>
       </c>
@@ -23629,7 +22780,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>16901</v>
       </c>
@@ -23658,7 +22809,7 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>16926</v>
       </c>
@@ -23687,7 +22838,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>16982</v>
       </c>
@@ -23713,7 +22864,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>16994</v>
       </c>
@@ -23739,7 +22890,7 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>17045</v>
       </c>
@@ -23765,7 +22916,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>17084</v>
       </c>
@@ -23791,7 +22942,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>17085</v>
       </c>
@@ -23817,7 +22968,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>17234</v>
       </c>
@@ -23843,7 +22994,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>17409</v>
       </c>
@@ -23869,7 +23020,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>17434</v>
       </c>
@@ -23892,7 +23043,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>17468</v>
       </c>
@@ -23915,7 +23066,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>17474</v>
       </c>
@@ -23938,7 +23089,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>17488</v>
       </c>
@@ -23961,7 +23112,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>17503</v>
       </c>
@@ -23984,7 +23135,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>17504</v>
       </c>
@@ -24004,7 +23155,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>17505</v>
       </c>
@@ -24021,7 +23172,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>17597</v>
       </c>
@@ -24038,7 +23189,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F460">
         <v>6071</v>
       </c>
@@ -24052,7 +23203,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F461">
         <v>6112</v>
       </c>
@@ -24066,7 +23217,7 @@
         <v>4605</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F462">
         <v>6163</v>
       </c>
@@ -24080,7 +23231,7 @@
         <v>4606</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F463">
         <v>6191</v>
       </c>
@@ -24094,7 +23245,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F464">
         <v>6203</v>
       </c>
@@ -24108,7 +23259,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="465" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F465">
         <v>6224</v>
       </c>
@@ -24122,7 +23273,7 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="466" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F466">
         <v>6225</v>
       </c>
@@ -24136,7 +23287,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="467" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F467">
         <v>6237</v>
       </c>
@@ -24150,7 +23301,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="468" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F468">
         <v>6257</v>
       </c>
@@ -24161,7 +23312,7 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="469" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F469">
         <v>6266</v>
       </c>
@@ -24172,7 +23323,7 @@
         <v>4684</v>
       </c>
     </row>
-    <row r="470" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F470">
         <v>6285</v>
       </c>
@@ -24183,7 +23334,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="471" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F471">
         <v>6286</v>
       </c>
@@ -24194,7 +23345,7 @@
         <v>4751</v>
       </c>
     </row>
-    <row r="472" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F472">
         <v>6296</v>
       </c>
@@ -24205,7 +23356,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="473" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F473">
         <v>6299</v>
       </c>
@@ -24216,7 +23367,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="474" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F474">
         <v>6300</v>
       </c>
@@ -24227,7 +23378,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="475" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F475">
         <v>6301</v>
       </c>
@@ -24238,7 +23389,7 @@
         <v>4779</v>
       </c>
     </row>
-    <row r="476" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F476">
         <v>6311</v>
       </c>
@@ -24249,7 +23400,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="477" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F477">
         <v>6329</v>
       </c>
@@ -24260,7 +23411,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="478" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F478">
         <v>6409</v>
       </c>
@@ -24271,7 +23422,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="479" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F479">
         <v>6414</v>
       </c>
@@ -24282,7 +23433,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="480" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:11" x14ac:dyDescent="0.35">
       <c r="J480">
         <v>5660</v>
       </c>
@@ -24290,7 +23441,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="481" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J481">
         <v>5661</v>
       </c>
@@ -24298,7 +23449,7 @@
         <v>4852</v>
       </c>
     </row>
-    <row r="482" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J482">
         <v>5673</v>
       </c>
@@ -24306,7 +23457,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="483" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J483">
         <v>5674</v>
       </c>
@@ -24314,7 +23465,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="484" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J484">
         <v>5676</v>
       </c>
@@ -24322,7 +23473,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="485" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J485">
         <v>5677</v>
       </c>
@@ -24330,7 +23481,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="486" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J486">
         <v>5678</v>
       </c>
@@ -24338,7 +23489,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="487" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J487">
         <v>5679</v>
       </c>
@@ -24346,7 +23497,7 @@
         <v>4868</v>
       </c>
     </row>
-    <row r="488" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J488">
         <v>5702</v>
       </c>
@@ -24354,7 +23505,7 @@
         <v>4882</v>
       </c>
     </row>
-    <row r="489" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J489">
         <v>5726</v>
       </c>
@@ -24362,7 +23513,7 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="490" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J490">
         <v>5730</v>
       </c>
@@ -24370,7 +23521,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="491" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J491">
         <v>5739</v>
       </c>
@@ -24378,7 +23529,7 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="492" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J492">
         <v>5752</v>
       </c>
@@ -24386,7 +23537,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="493" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J493">
         <v>5753</v>
       </c>
@@ -24394,7 +23545,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="494" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J494">
         <v>5754</v>
       </c>
@@ -24402,7 +23553,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="495" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J495">
         <v>5760</v>
       </c>
@@ -24410,7 +23561,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="496" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J496">
         <v>5792</v>
       </c>
@@ -24418,7 +23569,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="497" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J497">
         <v>5798</v>
       </c>
@@ -24426,7 +23577,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="498" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J498">
         <v>5814</v>
       </c>
@@ -24434,7 +23585,7 @@
         <v>4959</v>
       </c>
     </row>
-    <row r="499" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J499">
         <v>5835</v>
       </c>
@@ -24442,7 +23593,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="500" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J500">
         <v>5840</v>
       </c>
@@ -24450,7 +23601,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="501" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J501">
         <v>5851</v>
       </c>
@@ -24458,7 +23609,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="502" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J502">
         <v>5928</v>
       </c>
@@ -24466,7 +23617,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="503" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J503">
         <v>5933</v>
       </c>
@@ -24474,7 +23625,7 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="504" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J504">
         <v>5938</v>
       </c>
@@ -24482,7 +23633,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="505" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J505">
         <v>5952</v>
       </c>
@@ -24490,7 +23641,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="506" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J506">
         <v>5954</v>
       </c>
@@ -24498,7 +23649,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="507" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J507">
         <v>5999</v>
       </c>
@@ -24506,7 +23657,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="508" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J508">
         <v>6018</v>
       </c>
@@ -24514,7 +23665,7 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="509" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J509">
         <v>6020</v>
       </c>
@@ -24522,7 +23673,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="510" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J510">
         <v>6022</v>
       </c>
@@ -24530,7 +23681,7 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="511" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J511">
         <v>6048</v>
       </c>
@@ -24538,7 +23689,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="512" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J512">
         <v>6050</v>
       </c>
@@ -24546,7 +23697,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="513" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J513">
         <v>6056</v>
       </c>
@@ -24554,7 +23705,7 @@
         <v>5178</v>
       </c>
     </row>
-    <row r="514" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J514">
         <v>6093</v>
       </c>
@@ -24562,7 +23713,7 @@
         <v>5179</v>
       </c>
     </row>
-    <row r="515" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J515">
         <v>6094</v>
       </c>
@@ -24570,7 +23721,7 @@
         <v>5231</v>
       </c>
     </row>
-    <row r="516" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J516">
         <v>6125</v>
       </c>
@@ -24578,7 +23729,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="517" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J517">
         <v>6129</v>
       </c>
@@ -24586,7 +23737,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="518" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J518">
         <v>6133</v>
       </c>
@@ -24594,7 +23745,7 @@
         <v>5245</v>
       </c>
     </row>
-    <row r="519" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J519">
         <v>6135</v>
       </c>
@@ -24602,7 +23753,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="520" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J520">
         <v>6167</v>
       </c>
@@ -24610,37 +23761,37 @@
         <v>5252</v>
       </c>
     </row>
-    <row r="521" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J521">
         <v>6168</v>
       </c>
     </row>
-    <row r="522" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J522">
         <v>6181</v>
       </c>
     </row>
-    <row r="523" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J523">
         <v>6182</v>
       </c>
     </row>
-    <row r="524" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J524">
         <v>6183</v>
       </c>
     </row>
-    <row r="525" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J525">
         <v>6184</v>
       </c>
     </row>
-    <row r="526" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J526">
         <v>6185</v>
       </c>
     </row>
-    <row r="527" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J527">
         <v>6191</v>
       </c>
